--- a/Papers_matrix.xlsx
+++ b/Papers_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jat\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85f1d7acf737f95f/Escritorio/Proyectos/Thesis_project_QuispeCabello_Sanchez_Wong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF98539-CD78-42EE-B1F1-F1083B5C0BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{7FF98539-CD78-42EE-B1F1-F1083B5C0BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B21B74F-E70A-4CE9-A139-37BA8F54C93E}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AF968CF0-FCCF-48BE-83BB-B112A8D1796D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AF968CF0-FCCF-48BE-83BB-B112A8D1796D}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="213">
   <si>
     <t>Assessing Institutional Performance using Machine Learning on Arabic Facebook Comments</t>
   </si>
@@ -661,6 +661,36 @@
   </si>
   <si>
     <t>https://doi.org/10.1186/s40537-023-00861-x</t>
+  </si>
+  <si>
+    <t>Turismo</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>5,25</t>
+  </si>
+  <si>
+    <t>Se compara tres enfoques para análisis de sentimientos en big data turístico. Primero aplica Passive Learning SVM (PLSVM), entrenando el modelo con datos seleccionados aleatoriamente. Luego, usa Active Learning SVM (AL-SVM), que mejora la precisión al seleccionar los datos más inciertos para entrenamiento, aunque aún requiere etiquetado manual. Finalmente, propone un nuevo modelo híbrido llamado LeALSVM, que automatiza el etiquetado de los datos seleccionados por AL-SVM utilizando el léxico VADER.</t>
+  </si>
+  <si>
+    <t>IVADER</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>1,2,3,4,8</t>
+  </si>
+  <si>
+    <t>5,6,15,16,10,14</t>
+  </si>
+  <si>
+    <t>7,21</t>
+  </si>
+  <si>
+    <t>No maneja bien expresiones complejas como negaciones, no identifica emociones, no tiene mejoras contextuales. Tienen 98.64 de accuracy</t>
   </si>
 </sst>
 </file>
@@ -717,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -727,9 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -749,9 +776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -789,7 +816,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -895,7 +922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1037,7 +1064,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,7 +1076,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,7 +1316,7 @@
       <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="1">
@@ -1324,7 +1351,7 @@
       <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1359,7 +1386,7 @@
       <c r="B9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="1">
@@ -1394,7 +1421,7 @@
       <c r="B10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="1">
@@ -1429,7 +1456,7 @@
       <c r="B11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1467,7 +1494,7 @@
       <c r="B12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F12">
@@ -1772,32 +1799,74 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>200</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M25" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="C26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
       <c r="K26" s="2" t="s">
         <v>202</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1832,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F07661-5E8A-4B96-96BE-77979600D16C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,6 +2000,14 @@
         <v>186</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1941,7 +2018,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,7 +2105,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2083,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BAF98C-9F88-4974-AC88-CC56835CEE82}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,6 +2372,14 @@
         <v>175</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2302,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4B278A-0899-4F3C-A76D-9B5ADEA1F8BF}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,6 +2566,14 @@
         <v>189</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2488,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80F917B-4F14-47AA-9144-7804E6406DB2}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2561,6 +2654,14 @@
       </c>
       <c r="B8" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
